--- a/Ticket_types.xlsx
+++ b/Ticket_types.xlsx
@@ -413,31 +413,31 @@
         <v>eventId</v>
       </c>
       <c r="D1" t="str">
-        <v>quantity</v>
+        <v>availabilityEnd</v>
       </c>
       <c r="E1" t="str">
-        <v>perOrderMin</v>
+        <v>taxRate</v>
       </c>
       <c r="F1" t="str">
+        <v>availabilityEndTimestamp</v>
+      </c>
+      <c r="G1" t="str">
+        <v>price</v>
+      </c>
+      <c r="H1" t="str">
         <v>perOrderMax</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>saleMethod</v>
-      </c>
-      <c r="H1" t="str">
-        <v>price</v>
-      </c>
-      <c r="I1" t="str">
-        <v>taxRate</v>
       </c>
       <c r="J1" t="str">
         <v>availability</v>
       </c>
       <c r="K1" t="str">
-        <v>availabilityEnd</v>
+        <v>quantity</v>
       </c>
       <c r="L1" t="str">
-        <v>availabilityEndTimestamp</v>
+        <v>perOrderMin</v>
       </c>
       <c r="M1" t="str">
         <v>name</v>
@@ -453,32 +453,32 @@
       <c r="C2">
         <v>461236</v>
       </c>
-      <c r="D2">
-        <v>99999</v>
+      <c r="D2" t="str">
+        <v>eventEnd</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="str">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2023-08-31 20:45:00</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
         <v>online</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2" t="str">
         <v>immediate</v>
       </c>
-      <c r="K2" t="str">
-        <v>eventEnd</v>
-      </c>
-      <c r="L2" t="str">
-        <v>2023-08-31 20:45:00</v>
+      <c r="K2">
+        <v>99999</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
       <c r="M2" t="str">
         <v>RSVP</v>
@@ -494,32 +494,32 @@
       <c r="C3">
         <v>461236</v>
       </c>
-      <c r="D3">
-        <v>99999</v>
+      <c r="D3" t="str">
+        <v>eventEnd</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2023-08-31 20:45:00</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
         <v>online</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3" t="str">
         <v>immediate</v>
       </c>
-      <c r="K3" t="str">
-        <v>eventEnd</v>
-      </c>
-      <c r="L3" t="str">
-        <v>2023-08-31 20:45:00</v>
+      <c r="K3">
+        <v>99999</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
       </c>
       <c r="M3" t="str">
         <v>speakers</v>
@@ -535,32 +535,32 @@
       <c r="C4">
         <v>461236</v>
       </c>
-      <c r="D4">
-        <v>99999</v>
+      <c r="D4" t="str">
+        <v>eventEnd</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2023-08-31 20:45:00</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="str">
         <v>online</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4" t="str">
         <v>immediate</v>
       </c>
-      <c r="K4" t="str">
-        <v>eventEnd</v>
-      </c>
-      <c r="L4" t="str">
-        <v>2023-08-31 20:45:00</v>
+      <c r="K4">
+        <v>99999</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
       <c r="M4" t="str">
         <v>vip</v>
@@ -576,32 +576,32 @@
       <c r="C5">
         <v>461236</v>
       </c>
-      <c r="D5">
-        <v>99999</v>
+      <c r="D5" t="str">
+        <v>eventEnd</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2023-08-31 20:45:00</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="str">
         <v>online</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
       </c>
       <c r="J5" t="str">
         <v>immediate</v>
       </c>
-      <c r="K5" t="str">
-        <v>eventEnd</v>
-      </c>
-      <c r="L5" t="str">
-        <v>2023-08-31 20:45:00</v>
+      <c r="K5">
+        <v>99999</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
       <c r="M5" t="str">
         <v>Early Bird</v>
@@ -617,32 +617,32 @@
       <c r="C6">
         <v>461236</v>
       </c>
-      <c r="D6">
-        <v>99999</v>
+      <c r="D6" t="str">
+        <v>eventEnd</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2023-08-31 20:45:00</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
         <v>online</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6" t="str">
         <v>immediate</v>
       </c>
-      <c r="K6" t="str">
-        <v>eventEnd</v>
-      </c>
-      <c r="L6" t="str">
-        <v>2023-08-31 20:45:00</v>
+      <c r="K6">
+        <v>99999</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="M6" t="str">
         <v>Sponsors</v>
